--- a/NEW HR/PEJI, REGINE BARRIENTOS.xlsx
+++ b/NEW HR/PEJI, REGINE BARRIENTOS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D3F136-2FA1-43BB-9135-FF16EF7EE030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -187,12 +186,15 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>9/19,20/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -862,7 +864,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -879,25 +881,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K128" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1204,34 +1206,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K128"/>
+  <dimension ref="A2:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1728" topLeftCell="A28" activePane="bottomLeft"/>
-      <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1252,7 +1254,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1272,7 +1274,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1292,7 +1294,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1300,7 +1302,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1313,7 +1315,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1330,7 +1332,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1365,7 +1367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1374,7 +1376,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>27.75</v>
+        <v>31.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1384,12 +1386,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>26.75</v>
+        <v>29.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>43</v>
       </c>
@@ -1411,7 +1413,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>44378</v>
       </c>
@@ -1431,7 +1433,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>44409</v>
       </c>
@@ -1451,7 +1453,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>44440</v>
       </c>
@@ -1471,7 +1473,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>44470</v>
       </c>
@@ -1491,7 +1493,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>44501</v>
       </c>
@@ -1511,7 +1513,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>44531</v>
       </c>
@@ -1531,7 +1533,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>44</v>
       </c>
@@ -1549,7 +1551,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>44562</v>
       </c>
@@ -1569,7 +1571,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>44593</v>
       </c>
@@ -1589,7 +1591,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>44621</v>
       </c>
@@ -1609,7 +1611,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>44652</v>
       </c>
@@ -1629,7 +1631,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>44682</v>
       </c>
@@ -1649,7 +1651,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>44713</v>
       </c>
@@ -1673,7 +1675,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>44743</v>
       </c>
@@ -1699,7 +1701,7 @@
         <v>44767</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="20" t="s">
         <v>48</v>
@@ -1721,7 +1723,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>44774</v>
       </c>
@@ -1741,7 +1743,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>44805</v>
       </c>
@@ -1761,7 +1763,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>44835</v>
       </c>
@@ -1781,7 +1783,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>44866</v>
       </c>
@@ -1801,7 +1803,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>44896</v>
       </c>
@@ -1821,7 +1823,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>50</v>
       </c>
@@ -1839,7 +1841,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>44957</v>
       </c>
@@ -1859,7 +1861,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>44985</v>
       </c>
@@ -1879,7 +1881,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>45016</v>
       </c>
@@ -1899,7 +1901,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>45046</v>
       </c>
@@ -1919,7 +1921,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>45077</v>
       </c>
@@ -1939,20 +1941,22 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>45107</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="13"/>
+      <c r="C37" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D37" s="38"/>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
-      <c r="G37" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G37" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H37" s="38"/>
       <c r="I37" s="9"/>
@@ -1961,65 +1965,81 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>45138</v>
       </c>
       <c r="B38" s="20"/>
-      <c r="C38" s="13"/>
+      <c r="C38" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D38" s="38"/>
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
-      <c r="G38" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G38" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H38" s="38"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>45169</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="13"/>
+      <c r="B39" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D39" s="38"/>
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
-      <c r="G39" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G39" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H39" s="38"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K39" s="46">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>45199</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="38"/>
+      <c r="B40" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D40" s="38">
+        <v>1</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
-      <c r="G40" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G40" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H40" s="38"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="39">
-        <v>45230</v>
-      </c>
-      <c r="B41" s="20"/>
+      <c r="K40" s="46">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C41" s="13"/>
       <c r="D41" s="38"/>
       <c r="E41" s="9"/>
@@ -2028,14 +2048,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H41" s="38"/>
+      <c r="H41" s="38">
+        <v>2</v>
+      </c>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K41" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -2051,9 +2075,9 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -2069,9 +2093,9 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -2087,9 +2111,9 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -2105,9 +2129,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -2123,8 +2147,10 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="39">
+        <v>45382</v>
+      </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
       <c r="D47" s="38"/>
@@ -2139,7 +2165,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="39"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2155,7 +2181,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="39"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2171,7 +2197,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="39"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2187,7 +2213,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="39"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2203,7 +2229,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="39"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2219,7 +2245,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="39"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2235,7 +2261,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="39"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2251,7 +2277,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="39"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2267,7 +2293,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="39"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2283,7 +2309,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="39"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2299,7 +2325,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="39"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2315,7 +2341,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="39"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2331,7 +2357,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2347,7 +2373,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2363,7 +2389,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2379,7 +2405,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2395,7 +2421,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2411,7 +2437,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2427,7 +2453,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2443,7 +2469,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2459,7 +2485,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2475,7 +2501,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2491,7 +2517,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2507,7 +2533,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2523,7 +2549,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2539,7 +2565,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2555,7 +2581,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2571,7 +2597,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2587,7 +2613,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2603,7 +2629,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2619,7 +2645,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2635,7 +2661,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2651,7 +2677,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2667,7 +2693,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2683,7 +2709,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2699,7 +2725,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2715,7 +2741,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2731,7 +2757,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2747,7 +2773,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2763,7 +2789,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -2779,7 +2805,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -2795,7 +2821,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -2811,7 +2837,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -2827,7 +2853,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -2843,7 +2869,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -2859,7 +2885,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -2875,7 +2901,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -2891,7 +2917,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -2907,7 +2933,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -2923,7 +2949,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -2939,7 +2965,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -2955,7 +2981,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -2971,7 +2997,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -2987,7 +3013,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3003,7 +3029,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3019,7 +3045,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3035,7 +3061,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3051,7 +3077,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3067,7 +3093,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3083,7 +3109,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3099,7 +3125,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3115,7 +3141,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3131,7 +3157,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3147,7 +3173,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3163,7 +3189,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3179,7 +3205,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3195,7 +3221,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3211,7 +3237,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3227,7 +3253,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3243,7 +3269,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3259,7 +3285,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3275,7 +3301,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3291,7 +3317,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3307,7 +3333,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3323,7 +3349,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3339,7 +3365,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3355,7 +3381,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3371,7 +3397,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3387,7 +3413,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3403,7 +3429,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3419,21 +3445,37 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="41"/>
-      <c r="D128" s="42"/>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="39"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="38"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="42"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="38"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="15"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="20"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="40"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="42"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="42"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3450,10 +3492,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3476,28 +3518,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="47" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="47" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -3510,7 +3552,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3539,7 +3581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="D3" s="11"/>
@@ -3559,17 +3601,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="48" t="s">
         <v>28</v>
       </c>
@@ -3590,7 +3632,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="47">
         <v>1</v>
       </c>
@@ -3617,7 +3659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="47">
         <v>2</v>
       </c>
@@ -3643,7 +3685,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="47">
         <v>3</v>
       </c>
@@ -3669,7 +3711,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="47">
         <v>4</v>
       </c>
@@ -3695,7 +3737,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="47">
         <v>5</v>
       </c>
@@ -3721,7 +3763,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="47">
         <v>6</v>
       </c>
@@ -3747,7 +3789,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="47">
         <v>7</v>
       </c>
@@ -3773,7 +3815,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="47">
         <v>8</v>
       </c>
@@ -3799,7 +3841,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="47">
         <v>9</v>
       </c>
@@ -3819,7 +3861,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="47">
         <v>10</v>
       </c>
@@ -3839,7 +3881,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="47">
         <v>11</v>
       </c>
@@ -3859,7 +3901,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="47">
         <v>12</v>
       </c>
@@ -3880,7 +3922,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="47">
         <v>13</v>
       </c>
@@ -3901,7 +3943,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="47">
         <v>14</v>
       </c>
@@ -3922,7 +3964,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="47">
         <v>15</v>
       </c>
@@ -3943,7 +3985,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="47">
         <v>16</v>
       </c>
@@ -3964,7 +4006,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="47">
         <v>17</v>
       </c>
@@ -3985,7 +4027,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="47">
         <v>18</v>
       </c>
@@ -4006,7 +4048,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="47">
         <v>19</v>
       </c>
@@ -4027,7 +4069,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="47">
         <v>20</v>
       </c>
@@ -4048,7 +4090,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="47">
         <v>21</v>
       </c>
@@ -4069,7 +4111,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="47">
         <v>22</v>
       </c>
@@ -4090,7 +4132,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="47">
         <v>23</v>
       </c>
@@ -4111,7 +4153,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="47">
         <v>24</v>
       </c>
@@ -4132,7 +4174,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="47">
         <v>25</v>
       </c>
@@ -4153,7 +4195,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="47">
         <v>26</v>
       </c>
@@ -4174,7 +4216,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="47">
         <v>27</v>
       </c>
@@ -4195,7 +4237,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="47">
         <v>28</v>
       </c>
@@ -4216,7 +4258,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="47">
         <v>29</v>
       </c>
@@ -4237,7 +4279,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="47">
         <v>30</v>
       </c>
@@ -4258,7 +4300,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="47">
         <v>31</v>
       </c>
@@ -4279,7 +4321,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="47">
         <v>32</v>
       </c>
@@ -4288,7 +4330,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="47">
         <v>33</v>
       </c>
@@ -4297,7 +4339,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="47">
         <v>34</v>
       </c>
@@ -4306,7 +4348,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="47">
         <v>35</v>
       </c>
@@ -4315,7 +4357,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="47">
         <v>36</v>
       </c>
@@ -4324,7 +4366,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="47">
         <v>37</v>
       </c>
@@ -4333,7 +4375,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="47">
         <v>38</v>
       </c>
@@ -4342,7 +4384,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="47">
         <v>39</v>
       </c>
@@ -4351,7 +4393,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="47">
         <v>40</v>
       </c>
@@ -4360,7 +4402,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="47">
         <v>41</v>
       </c>
@@ -4369,7 +4411,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="47">
         <v>42</v>
       </c>
@@ -4378,7 +4420,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="47">
         <v>43</v>
       </c>
@@ -4387,7 +4429,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="47">
         <v>44</v>
       </c>
@@ -4396,7 +4438,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="47">
         <v>45</v>
       </c>
@@ -4405,7 +4447,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="47">
         <v>46</v>
       </c>
@@ -4414,7 +4456,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="47">
         <v>47</v>
       </c>
@@ -4423,7 +4465,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="47">
         <v>48</v>
       </c>
@@ -4432,7 +4474,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="47">
         <v>49</v>
       </c>
@@ -4441,7 +4483,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="47">
         <v>50</v>
       </c>
@@ -4450,7 +4492,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="47">
         <v>51</v>
       </c>
@@ -4459,7 +4501,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="47">
         <v>52</v>
       </c>
@@ -4468,7 +4510,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="47">
         <v>53</v>
       </c>
@@ -4477,7 +4519,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="47">
         <v>54</v>
       </c>
@@ -4486,7 +4528,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="47">
         <v>55</v>
       </c>
@@ -4495,7 +4537,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="47">
         <v>56</v>
       </c>
@@ -4504,7 +4546,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="47">
         <v>57</v>
       </c>
@@ -4513,7 +4555,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="47">
         <v>58</v>
       </c>
@@ -4522,7 +4564,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="47">
         <v>59</v>
       </c>
@@ -4531,7 +4573,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="47">
         <v>60</v>
       </c>
@@ -4540,7 +4582,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/PEJI, REGINE BARRIENTOS.xlsx
+++ b/NEW HR/PEJI, REGINE BARRIENTOS.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>PERIOD</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>9/19,20/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>01/18,19,22/2024</t>
   </si>
 </sst>
 </file>
@@ -881,7 +890,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K129" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1210,12 +1219,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K129"/>
+  <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A25" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A33" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1385,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>31.75</v>
+        <v>32.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1386,7 +1395,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>29.75</v>
+        <v>33.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2062,13 +2071,15 @@
         <v>45230</v>
       </c>
       <c r="B42" s="20"/>
-      <c r="C42" s="13"/>
+      <c r="C42" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D42" s="38"/>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G42" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H42" s="38"/>
       <c r="I42" s="9"/>
@@ -2080,13 +2091,15 @@
         <v>45260</v>
       </c>
       <c r="B43" s="20"/>
-      <c r="C43" s="13"/>
+      <c r="C43" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D43" s="38"/>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G43" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H43" s="38"/>
       <c r="I43" s="9"/>
@@ -2098,13 +2111,15 @@
         <v>45291</v>
       </c>
       <c r="B44" s="20"/>
-      <c r="C44" s="13"/>
+      <c r="C44" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D44" s="38"/>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G44" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H44" s="38"/>
       <c r="I44" s="9"/>
@@ -2112,8 +2127,8 @@
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="39">
-        <v>45322</v>
+      <c r="A45" s="45" t="s">
+        <v>52</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -2131,11 +2146,15 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
-        <v>45351</v>
-      </c>
-      <c r="B46" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C46" s="13"/>
-      <c r="D46" s="38"/>
+      <c r="D46" s="38">
+        <v>3</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13" t="str">
@@ -2145,11 +2164,13 @@
       <c r="H46" s="38"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -2166,7 +2187,9 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="39">
+        <v>45382</v>
+      </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
       <c r="D48" s="38"/>
@@ -2182,7 +2205,9 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+      <c r="A49" s="39">
+        <v>45412</v>
+      </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="38"/>
@@ -2198,7 +2223,9 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="39">
+        <v>45443</v>
+      </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
       <c r="D50" s="38"/>
@@ -2214,7 +2241,9 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+      <c r="A51" s="39">
+        <v>45473</v>
+      </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
       <c r="D51" s="38"/>
@@ -2230,7 +2259,9 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+      <c r="A52" s="39">
+        <v>45504</v>
+      </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
       <c r="D52" s="38"/>
@@ -2246,7 +2277,9 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="39"/>
+      <c r="A53" s="39">
+        <v>45535</v>
+      </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
       <c r="D53" s="38"/>
@@ -2262,7 +2295,9 @@
       <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
+      <c r="A54" s="39">
+        <v>45565</v>
+      </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
       <c r="D54" s="38"/>
@@ -2278,7 +2313,9 @@
       <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+      <c r="A55" s="39">
+        <v>45596</v>
+      </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
       <c r="D55" s="38"/>
@@ -2294,7 +2331,9 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+      <c r="A56" s="39">
+        <v>45626</v>
+      </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
       <c r="D56" s="38"/>
@@ -3462,20 +3501,36 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="40"/>
-      <c r="B129" s="15"/>
-      <c r="C129" s="41"/>
-      <c r="D129" s="42"/>
+      <c r="A129" s="39"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="38"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="42"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="38"/>
       <c r="I129" s="9"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="15"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="40"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="42"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="42"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/NEW HR/PEJI, REGINE BARRIENTOS.xlsx
+++ b/NEW HR/PEJI, REGINE BARRIENTOS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318C2A49-9DCF-4F09-BEC0-0A691CE257F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -198,12 +199,15 @@
   </si>
   <si>
     <t>01/18,19,22/2024</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -873,7 +877,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -890,25 +894,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1215,34 +1219,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A33" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1263,7 +1267,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1283,7 +1287,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1303,7 +1307,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1311,7 +1315,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1324,7 +1328,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1341,7 +1345,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1380,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1385,7 +1389,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>32.5</v>
+        <v>33.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1395,12 +1399,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>33.5</v>
+        <v>33.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="45" t="s">
         <v>43</v>
       </c>
@@ -1422,7 +1426,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="39">
         <v>44378</v>
       </c>
@@ -1442,7 +1446,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="39">
         <v>44409</v>
       </c>
@@ -1462,7 +1466,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="39">
         <v>44440</v>
       </c>
@@ -1482,7 +1486,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="39">
         <v>44470</v>
       </c>
@@ -1502,7 +1506,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="39">
         <v>44501</v>
       </c>
@@ -1522,7 +1526,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
         <v>44531</v>
       </c>
@@ -1542,7 +1546,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>44</v>
       </c>
@@ -1560,7 +1564,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="39">
         <v>44562</v>
       </c>
@@ -1580,7 +1584,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="39">
         <v>44593</v>
       </c>
@@ -1600,7 +1604,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="39">
         <v>44621</v>
       </c>
@@ -1620,7 +1624,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="39">
         <v>44652</v>
       </c>
@@ -1640,7 +1644,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="39">
         <v>44682</v>
       </c>
@@ -1660,7 +1664,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="39">
         <v>44713</v>
       </c>
@@ -1684,7 +1688,7 @@
         <v>44720</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="39">
         <v>44743</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>44767</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="20" t="s">
         <v>48</v>
@@ -1732,7 +1736,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="39">
         <v>44774</v>
       </c>
@@ -1752,7 +1756,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="39">
         <v>44805</v>
       </c>
@@ -1772,7 +1776,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="39">
         <v>44835</v>
       </c>
@@ -1792,7 +1796,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="39">
         <v>44866</v>
       </c>
@@ -1812,7 +1816,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="39">
         <v>44896</v>
       </c>
@@ -1832,7 +1836,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="45" t="s">
         <v>50</v>
       </c>
@@ -1850,7 +1854,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="39">
         <v>44957</v>
       </c>
@@ -1870,7 +1874,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="39">
         <v>44985</v>
       </c>
@@ -1890,7 +1894,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="39">
         <v>45016</v>
       </c>
@@ -1910,7 +1914,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="39">
         <v>45046</v>
       </c>
@@ -1930,7 +1934,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="39">
         <v>45077</v>
       </c>
@@ -1950,7 +1954,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="39">
         <v>45107</v>
       </c>
@@ -1974,7 +1978,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="39">
         <v>45138</v>
       </c>
@@ -1994,7 +1998,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="39">
         <v>45169</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="39">
         <v>45199</v>
       </c>
@@ -2044,7 +2048,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="39"/>
       <c r="B41" s="20" t="s">
         <v>48</v>
@@ -2066,7 +2070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="39">
         <v>45230</v>
       </c>
@@ -2086,7 +2090,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="39">
         <v>45260</v>
       </c>
@@ -2106,7 +2110,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="39">
         <v>45291</v>
       </c>
@@ -2126,7 +2130,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="45" t="s">
         <v>52</v>
       </c>
@@ -2144,22 +2148,24 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="39">
         <v>45322</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="13"/>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D46" s="38">
         <v>3</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H46" s="38"/>
       <c r="I46" s="9"/>
@@ -2168,11 +2174,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="39">
-        <v>45351</v>
-      </c>
-      <c r="B47" s="20"/>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="39"/>
+      <c r="B47" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C47" s="13"/>
       <c r="D47" s="38"/>
       <c r="E47" s="9"/>
@@ -2181,14 +2187,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H47" s="38"/>
+      <c r="H47" s="38">
+        <v>1</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="46">
+        <v>45314</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="39">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2204,9 +2214,9 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="39">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2222,9 +2232,9 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="39">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2240,9 +2250,9 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="39">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2258,9 +2268,9 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="39">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2276,9 +2286,9 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="39">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2294,9 +2304,9 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="39">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2312,9 +2322,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="39">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2330,9 +2340,9 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="39">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2348,8 +2358,10 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="39">
+        <v>45626</v>
+      </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
       <c r="D57" s="38"/>
@@ -2364,7 +2376,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="39"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2380,7 +2392,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="39"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2396,7 +2408,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="39"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2412,7 +2424,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="39"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2428,7 +2440,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="39"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2444,7 +2456,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="39"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2460,7 +2472,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="39"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2476,7 +2488,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="39"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2492,7 +2504,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="39"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2508,7 +2520,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="39"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2524,7 +2536,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="39"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2540,7 +2552,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="39"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2556,7 +2568,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="39"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2572,7 +2584,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="39"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2588,7 +2600,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="39"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2604,7 +2616,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="39"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2620,7 +2632,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="39"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2636,7 +2648,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="39"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2652,7 +2664,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="39"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2668,7 +2680,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="39"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2684,7 +2696,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="39"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2700,7 +2712,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="39"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2716,7 +2728,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="39"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2732,7 +2744,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="39"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2748,7 +2760,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="39"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2764,7 +2776,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="39"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2780,7 +2792,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="39"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2796,7 +2808,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="39"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2812,7 +2824,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="39"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2828,7 +2840,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="39"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -2844,7 +2856,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="39"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -2860,7 +2872,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="39"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -2876,7 +2888,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="39"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -2892,7 +2904,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="39"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -2908,7 +2920,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="39"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -2924,7 +2936,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="39"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -2940,7 +2952,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="39"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -2956,7 +2968,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="39"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -2972,7 +2984,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="39"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -2988,7 +3000,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="39"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3004,7 +3016,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="39"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3020,7 +3032,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="39"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3036,7 +3048,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="39"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3052,7 +3064,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="39"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3068,7 +3080,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="39"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3084,7 +3096,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="39"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3100,7 +3112,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="39"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3116,7 +3128,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="39"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3132,7 +3144,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="39"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3148,7 +3160,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="39"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3164,7 +3176,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="39"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3180,7 +3192,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="39"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3196,7 +3208,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="39"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3212,7 +3224,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="39"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3228,7 +3240,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="39"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3244,7 +3256,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="39"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3260,7 +3272,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="39"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3276,7 +3288,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="39"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3292,7 +3304,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="39"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3308,7 +3320,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="39"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3324,7 +3336,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="39"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3340,7 +3352,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="39"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3356,7 +3368,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="39"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3372,7 +3384,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="39"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3388,7 +3400,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="39"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3404,7 +3416,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="39"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3420,7 +3432,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="39"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3436,7 +3448,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="39"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3452,7 +3464,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="39"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3468,7 +3480,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="39"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3484,7 +3496,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="39"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3500,7 +3512,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="39"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3516,21 +3528,37 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="41"/>
-      <c r="D130" s="42"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="39"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="38"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="42"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="38"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="42"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="42"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3547,10 +3575,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3573,28 +3601,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="47" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="47" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -3607,7 +3635,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3636,7 +3664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="D3" s="11"/>
@@ -3656,17 +3684,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="34"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="48" t="s">
         <v>28</v>
       </c>
@@ -3687,7 +3715,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="47">
         <v>1</v>
       </c>
@@ -3714,7 +3742,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="47">
         <v>2</v>
       </c>
@@ -3740,7 +3768,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="47">
         <v>3</v>
       </c>
@@ -3766,7 +3794,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="47">
         <v>4</v>
       </c>
@@ -3792,7 +3820,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="47">
         <v>5</v>
       </c>
@@ -3818,7 +3846,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="47">
         <v>6</v>
       </c>
@@ -3844,7 +3872,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="47">
         <v>7</v>
       </c>
@@ -3870,7 +3898,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="47">
         <v>8</v>
       </c>
@@ -3896,7 +3924,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="47">
         <v>9</v>
       </c>
@@ -3916,7 +3944,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="47">
         <v>10</v>
       </c>
@@ -3936,7 +3964,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="47">
         <v>11</v>
       </c>
@@ -3956,7 +3984,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="47">
         <v>12</v>
       </c>
@@ -3977,7 +4005,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="47">
         <v>13</v>
       </c>
@@ -3998,7 +4026,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="47">
         <v>14</v>
       </c>
@@ -4019,7 +4047,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="47">
         <v>15</v>
       </c>
@@ -4040,7 +4068,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="47">
         <v>16</v>
       </c>
@@ -4061,7 +4089,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="47">
         <v>17</v>
       </c>
@@ -4082,7 +4110,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="47">
         <v>18</v>
       </c>
@@ -4103,7 +4131,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="47">
         <v>19</v>
       </c>
@@ -4124,7 +4152,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="47">
         <v>20</v>
       </c>
@@ -4145,7 +4173,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="47">
         <v>21</v>
       </c>
@@ -4166,7 +4194,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="47">
         <v>22</v>
       </c>
@@ -4187,7 +4215,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="47">
         <v>23</v>
       </c>
@@ -4208,7 +4236,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="47">
         <v>24</v>
       </c>
@@ -4229,7 +4257,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="47">
         <v>25</v>
       </c>
@@ -4250,7 +4278,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="47">
         <v>26</v>
       </c>
@@ -4271,7 +4299,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="47">
         <v>27</v>
       </c>
@@ -4292,7 +4320,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="47">
         <v>28</v>
       </c>
@@ -4313,7 +4341,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="47">
         <v>29</v>
       </c>
@@ -4334,7 +4362,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="47">
         <v>30</v>
       </c>
@@ -4355,7 +4383,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="47">
         <v>31</v>
       </c>
@@ -4376,7 +4404,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="47">
         <v>32</v>
       </c>
@@ -4385,7 +4413,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="47">
         <v>33</v>
       </c>
@@ -4394,7 +4422,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="47">
         <v>34</v>
       </c>
@@ -4403,7 +4431,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="47">
         <v>35</v>
       </c>
@@ -4412,7 +4440,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="47">
         <v>36</v>
       </c>
@@ -4421,7 +4449,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="47">
         <v>37</v>
       </c>
@@ -4430,7 +4458,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="47">
         <v>38</v>
       </c>
@@ -4439,7 +4467,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="47">
         <v>39</v>
       </c>
@@ -4448,7 +4476,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="47">
         <v>40</v>
       </c>
@@ -4457,7 +4485,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="47">
         <v>41</v>
       </c>
@@ -4466,7 +4494,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="47">
         <v>42</v>
       </c>
@@ -4475,7 +4503,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="47">
         <v>43</v>
       </c>
@@ -4484,7 +4512,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="47">
         <v>44</v>
       </c>
@@ -4493,7 +4521,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="47">
         <v>45</v>
       </c>
@@ -4502,7 +4530,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="47">
         <v>46</v>
       </c>
@@ -4511,7 +4539,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="47">
         <v>47</v>
       </c>
@@ -4520,7 +4548,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="47">
         <v>48</v>
       </c>
@@ -4529,7 +4557,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="47">
         <v>49</v>
       </c>
@@ -4538,7 +4566,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="47">
         <v>50</v>
       </c>
@@ -4547,7 +4575,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="47">
         <v>51</v>
       </c>
@@ -4556,7 +4584,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="47">
         <v>52</v>
       </c>
@@ -4565,7 +4593,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="47">
         <v>53</v>
       </c>
@@ -4574,7 +4602,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="47">
         <v>54</v>
       </c>
@@ -4583,7 +4611,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="47">
         <v>55</v>
       </c>
@@ -4592,7 +4620,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="47">
         <v>56</v>
       </c>
@@ -4601,7 +4629,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="47">
         <v>57</v>
       </c>
@@ -4610,7 +4638,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="47">
         <v>58</v>
       </c>
@@ -4619,7 +4647,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="47">
         <v>59</v>
       </c>
@@ -4628,7 +4656,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="47">
         <v>60</v>
       </c>
@@ -4637,7 +4665,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
